--- a/report_week.xlsx
+++ b/report_week.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="320" windowWidth="14810" windowHeight="7800" tabRatio="840" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="840" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="清算异常流水监控" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,15 +14,15 @@
     <sheet name="异地清分报表平衡监控" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -148,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -278,32 +278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -323,19 +297,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -382,14 +343,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -432,21 +395,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -459,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -476,27 +424,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,13 +452,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -541,77 +477,55 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -985,295 +899,295 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="11.36328125" customWidth="1" style="26" min="1" max="1"/>
-    <col width="6.90625" customWidth="1" style="26" min="2" max="2"/>
-    <col width="7.453125" customWidth="1" style="26" min="3" max="3"/>
-    <col width="9.81640625" customWidth="1" style="26" min="4" max="4"/>
-    <col width="11.1796875" customWidth="1" style="26" min="5" max="5"/>
-    <col width="6.7265625" customWidth="1" style="26" min="6" max="7"/>
-    <col width="10.36328125" bestFit="1" customWidth="1" style="26" min="8" max="8"/>
-    <col width="10.54296875" customWidth="1" style="26" min="9" max="9"/>
-    <col width="17.7265625" customWidth="1" style="26" min="11" max="11"/>
-    <col width="9" customWidth="1" style="26" min="14" max="14"/>
-    <col width="10.26953125" bestFit="1" customWidth="1" style="26" min="19" max="19"/>
+    <col width="11.36328125" customWidth="1" style="22" min="1" max="1"/>
+    <col width="6.90625" customWidth="1" style="22" min="2" max="2"/>
+    <col width="7.453125" customWidth="1" style="22" min="3" max="3"/>
+    <col width="9.81640625" customWidth="1" style="22" min="4" max="4"/>
+    <col width="11.1796875" customWidth="1" style="22" min="5" max="5"/>
+    <col width="6.7265625" customWidth="1" style="22" min="6" max="7"/>
+    <col width="10.36328125" bestFit="1" customWidth="1" style="22" min="8" max="8"/>
+    <col width="10.54296875" customWidth="1" style="22" min="9" max="9"/>
+    <col width="17.7265625" customWidth="1" style="22" min="11" max="11"/>
+    <col width="9" customWidth="1" style="22" min="14" max="14"/>
+    <col width="10.26953125" bestFit="1" customWidth="1" style="22" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="n">
-        <v>44403</v>
-      </c>
-      <c r="B1" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1" s="16" t="n">
+      <c r="A1" s="11" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B1" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="n">
+        <v>938.75</v>
+      </c>
+      <c r="E1" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="n">
+        <v>938.75</v>
+      </c>
+      <c r="I1" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="n">
-        <v>44404</v>
-      </c>
-      <c r="B2" s="15" t="n">
+      <c r="A2" s="11" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16" t="n">
-        <v>289.15</v>
-      </c>
-      <c r="E2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15" t="n">
+      <c r="C2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>773.4299999999999</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16" t="n">
-        <v>289.15</v>
-      </c>
-      <c r="I2" s="16" t="n">
+      <c r="G2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="n">
+        <v>773.4299999999999</v>
+      </c>
+      <c r="I2" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="n">
-        <v>44405</v>
-      </c>
-      <c r="B3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15" t="n">
+      <c r="A3" s="11" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>1000.68</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="n">
+        <v>1000.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16" t="n">
-        <v>170.43</v>
-      </c>
-      <c r="F3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15" t="n">
+      <c r="C4" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>382.82</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>3167.4</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <v>3167.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="n">
+        <v>44456</v>
+      </c>
+      <c r="B5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16" t="n">
-        <v>170.43</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="n">
-        <v>44406</v>
-      </c>
-      <c r="B4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="n">
-        <v>44407</v>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>382.82</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="n">
+        <v>44457</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>1397.62</v>
-      </c>
-      <c r="F5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16" t="n">
-        <v>1397.62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="n">
-        <v>44408</v>
-      </c>
-      <c r="B6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16" t="n">
+      <c r="C6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>650.4200000000001</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="n">
-        <v>311.94</v>
-      </c>
-      <c r="I7" s="16" t="n">
+      <c r="A7" s="11" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="inlineStr">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>小计</t>
         </is>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="23">
         <f>SUM(B1:B7)</f>
         <v/>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="23">
         <f>SUM(C1:C7)</f>
         <v/>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="24">
         <f>SUM(D1:D7)</f>
         <v/>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="24">
         <f>SUM(E1:E7)</f>
         <v/>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="23">
         <f>SUM(F1:F7)</f>
         <v/>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="23">
         <f>SUM(G1:G7)</f>
         <v/>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="24">
         <f>SUM(H1:H7)</f>
         <v/>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="24">
         <f>SUM(I1:I7)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A9" s="18" t="inlineStr">
+    <row r="9" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A9" s="15" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="29">
         <f>SUM(B8:C8)</f>
         <v/>
       </c>
-      <c r="C9" s="44" t="n"/>
-      <c r="D9" s="45">
+      <c r="C9" s="30" t="n"/>
+      <c r="D9" s="41">
         <f>SUM(D8:E8)</f>
         <v/>
       </c>
-      <c r="E9" s="44" t="n"/>
-      <c r="F9" s="43">
+      <c r="E9" s="30" t="n"/>
+      <c r="F9" s="29">
         <f>SUM(F8:G8)</f>
         <v/>
       </c>
-      <c r="G9" s="44" t="n"/>
-      <c r="H9" s="45">
+      <c r="G9" s="30" t="n"/>
+      <c r="H9" s="41">
         <f>SUM(H8:I8)</f>
         <v/>
       </c>
-      <c r="I9" s="44" t="n"/>
-    </row>
-    <row r="10" ht="14.5" customHeight="1" s="26" thickTop="1"/>
+      <c r="I9" s="30" t="n"/>
+    </row>
+    <row r="10" ht="14.5" customHeight="1" s="22" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B9:C9"/>
@@ -1294,286 +1208,286 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="12" customWidth="1" style="26" min="1" max="1"/>
-    <col width="13.7265625" bestFit="1" customWidth="1" style="26" min="5" max="5"/>
-    <col width="12.7265625" bestFit="1" customWidth="1" style="26" min="6" max="6"/>
-    <col width="12.6328125" bestFit="1" customWidth="1" style="26" min="9" max="9"/>
-    <col width="13.7265625" customWidth="1" style="26" min="13" max="13"/>
-    <col width="15.08984375" bestFit="1" customWidth="1" style="26" min="15" max="15"/>
-    <col width="12.7265625" bestFit="1" customWidth="1" style="26" min="19" max="19"/>
+    <col width="12" customWidth="1" style="22" min="1" max="1"/>
+    <col width="13.7265625" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
+    <col width="12.7265625" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
+    <col width="12.6328125" bestFit="1" customWidth="1" style="22" min="9" max="9"/>
+    <col width="13.7265625" customWidth="1" style="22" min="13" max="13"/>
+    <col width="15.08984375" bestFit="1" customWidth="1" style="22" min="15" max="15"/>
+    <col width="12.7265625" bestFit="1" customWidth="1" style="22" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A1" s="20" t="n">
-        <v>44403</v>
-      </c>
-      <c r="B1" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="n">
+    <row r="1" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A1" s="16" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B1" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="n">
+        <v>5087.12</v>
+      </c>
+      <c r="F1" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" s="9" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A2" s="16" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="E1" s="11" t="n">
-        <v>9566.529999999999</v>
-      </c>
-      <c r="F1" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1" s="11" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A2" s="20" t="n">
-        <v>44404</v>
-      </c>
-      <c r="B2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="n">
+      <c r="E2" s="9" t="n">
+        <v>8043</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A3" s="16" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A4" s="16" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11" t="n">
-        <v>8400</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10" t="n">
+      <c r="D4" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>28496.22</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11" t="n">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A3" s="20" t="n">
-        <v>44405</v>
-      </c>
-      <c r="B3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11" t="n">
-        <v>14742.93</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="n">
+      <c r="H4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A5" s="16" t="n">
+        <v>44456</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>19449</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>16949</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A6" s="16" t="n">
+        <v>44457</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="I3" s="11" t="n">
-        <v>13242.93</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A4" s="20" t="n">
-        <v>44406</v>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>9000.02</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A5" s="20" t="n">
-        <v>44407</v>
-      </c>
-      <c r="B5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="n">
+      <c r="E6" s="9" t="n">
+        <v>12200</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A7" s="16" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>21820</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="n">
-        <v>7468.14</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="n">
-        <v>7468.14</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A6" s="20" t="n">
-        <v>44408</v>
-      </c>
-      <c r="B6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>19528.78</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" s="11" t="n">
-        <v>10500.32</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A7" s="20" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="11" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="I7" s="9" t="n">
+        <v>10820</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>小计</t>
         </is>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f>SUM(B1:B7)</f>
         <v/>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f>SUM(C1:C7)</f>
         <v/>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f>SUM(D1:D7)</f>
         <v/>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <f>SUM(E1:E7)</f>
         <v/>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <f>SUM(F1:F7)</f>
         <v/>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <f>SUM(G1:G7)</f>
         <v/>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f>SUM(H1:H7)</f>
         <v/>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="17">
         <f>SUM(I1:I7)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A9" s="29" t="inlineStr">
+    <row r="9" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="32">
         <f>SUM(B8:D8)</f>
         <v/>
       </c>
-      <c r="C9" s="47" t="n"/>
-      <c r="D9" s="48" t="n"/>
-      <c r="E9" s="49">
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="34" t="n"/>
+      <c r="E9" s="42">
         <f>E8</f>
         <v/>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="32">
         <f>SUM(F8:H8)</f>
         <v/>
       </c>
-      <c r="G9" s="47" t="n"/>
-      <c r="H9" s="48" t="n"/>
-      <c r="I9" s="49">
+      <c r="G9" s="33" t="n"/>
+      <c r="H9" s="34" t="n"/>
+      <c r="I9" s="42">
         <f>I8</f>
         <v/>
       </c>
@@ -1597,67 +1511,67 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="11.7265625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="11.453125" customWidth="1" style="26" min="2" max="2"/>
-    <col width="10.26953125" bestFit="1" customWidth="1" style="26" min="6" max="6"/>
+    <col width="11.7265625" customWidth="1" style="22" min="1" max="1"/>
+    <col width="11.453125" customWidth="1" style="22" min="2" max="2"/>
+    <col width="10.26953125" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="n">
-        <v>44403</v>
+        <v>44452</v>
       </c>
       <c r="B1" s="3" t="n">
-        <v>44401</v>
+        <v>44450</v>
       </c>
       <c r="C1" s="4" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44404</v>
+        <v>44453</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>44402</v>
+        <v>44451</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44405</v>
+        <v>44454</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44403</v>
+        <v>44452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44406</v>
+        <v>44455</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>44404</v>
+        <v>44453</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
@@ -1665,27 +1579,27 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44407</v>
+        <v>44456</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>44405</v>
+        <v>44454</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44408</v>
+        <v>44457</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>44406</v>
+        <v>44455</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0</v>
@@ -1693,25 +1607,25 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>44409</v>
+        <v>44458</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>44407</v>
+        <v>44456</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="50" t="inlineStr">
+      <c r="A8" s="35" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="B8" s="51" t="n"/>
+      <c r="B8" s="36" t="n"/>
       <c r="C8" s="5">
         <f>SUM(C1:C7)</f>
         <v/>
@@ -1739,32 +1653,32 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="11.7265625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="18.453125" customWidth="1" style="26" min="2" max="2"/>
-    <col width="21.36328125" customWidth="1" style="26" min="3" max="3"/>
-    <col width="17.36328125" customWidth="1" style="26" min="4" max="5"/>
-    <col width="9.36328125" bestFit="1" customWidth="1" style="26" min="9" max="9"/>
+    <col width="11.7265625" customWidth="1" style="22" min="1" max="1"/>
+    <col width="18.453125" customWidth="1" style="22" min="2" max="2"/>
+    <col width="21.36328125" customWidth="1" style="22" min="3" max="3"/>
+    <col width="17.36328125" customWidth="1" style="22" min="4" max="5"/>
+    <col width="9.36328125" bestFit="1" customWidth="1" style="22" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" s="26" thickBot="1">
+    <row r="1" ht="14.5" customHeight="1" s="22" thickBot="1">
       <c r="A1" s="2" t="n">
-        <v>44403</v>
+        <v>44452</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1" s="26" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" s="22" thickBot="1">
       <c r="A2" s="2" t="n">
-        <v>44404</v>
+        <v>44453</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -1773,77 +1687,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.5" customHeight="1" s="26" thickBot="1">
+    <row r="3" ht="14.5" customHeight="1" s="22" thickBot="1">
       <c r="A3" s="2" t="n">
-        <v>44405</v>
+        <v>44454</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" s="26" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" s="22" thickBot="1">
       <c r="A4" s="2" t="n">
-        <v>44406</v>
+        <v>44455</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1" s="26" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" s="22" thickBot="1">
       <c r="A5" s="2" t="n">
-        <v>44407</v>
+        <v>44456</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1" s="26" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" customHeight="1" s="22" thickBot="1">
       <c r="A6" s="2" t="n">
-        <v>44408</v>
+        <v>44457</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1" s="26" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" customHeight="1" s="22" thickBot="1">
       <c r="A7" s="2" t="n">
-        <v>44409</v>
+        <v>44458</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A8" s="23" t="inlineStr">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A8" s="19" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="21">
         <f>SUM(B1:B7)</f>
         <v/>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <f>SUM(C1:C7)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="14.5" customHeight="1" s="26" thickTop="1"/>
+    <row r="9" ht="14.5" customHeight="1" s="22" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1856,193 +1770,198 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="11.6328125" customWidth="1" style="26" min="1" max="1"/>
-    <col width="15.7265625" customWidth="1" style="26" min="2" max="2"/>
-    <col width="17" customWidth="1" style="26" min="3" max="3"/>
-    <col width="17" customWidth="1" style="26" min="4" max="4"/>
-    <col width="17" customWidth="1" style="26" min="5" max="5"/>
-    <col width="17" customWidth="1" style="26" min="6" max="6"/>
-    <col width="10.7265625" bestFit="1" customWidth="1" style="26" min="8" max="8"/>
-    <col width="15.7265625" bestFit="1" customWidth="1" style="26" min="9" max="9"/>
-    <col width="27.453125" bestFit="1" customWidth="1" style="26" min="10" max="10"/>
-    <col width="32.36328125" bestFit="1" customWidth="1" style="26" min="11" max="11"/>
-    <col width="14" customWidth="1" style="26" min="12" max="12"/>
-    <col width="17.26953125" bestFit="1" customWidth="1" style="26" min="13" max="13"/>
+    <col width="11.6328125" customWidth="1" style="22" min="1" max="1"/>
+    <col width="15.7265625" customWidth="1" style="22" min="2" max="2"/>
+    <col width="17" customWidth="1" style="22" min="3" max="6"/>
+    <col width="10.7265625" bestFit="1" customWidth="1" style="22" min="8" max="8"/>
+    <col width="16.81640625" bestFit="1" customWidth="1" style="22" min="9" max="9"/>
+    <col width="27.453125" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
+    <col width="32.36328125" bestFit="1" customWidth="1" style="22" min="11" max="11"/>
+    <col width="14" customWidth="1" style="22" min="12" max="12"/>
+    <col width="17.26953125" bestFit="1" customWidth="1" style="22" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A1" s="9" t="n">
-        <v>44403</v>
-      </c>
-      <c r="B1" s="9" t="n">
-        <v>44402</v>
-      </c>
-      <c r="C1" s="24" t="n">
-        <v>3757</v>
-      </c>
-      <c r="D1" s="52" t="n">
-        <v>1470076.06</v>
-      </c>
-      <c r="E1" s="24" t="n">
-        <v>13774</v>
-      </c>
-      <c r="F1" s="52" t="n">
-        <v>7325196.62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A2" s="9" t="n">
-        <v>44404</v>
-      </c>
-      <c r="B2" s="9" t="n">
-        <v>44403</v>
-      </c>
-      <c r="C2" s="24" t="n">
-        <v>3599</v>
-      </c>
-      <c r="D2" s="52" t="n">
-        <v>1362661.67</v>
-      </c>
-      <c r="E2" s="24" t="n">
-        <v>12023</v>
-      </c>
-      <c r="F2" s="52" t="n">
-        <v>6196545.22</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A3" s="9" t="n">
-        <v>44405</v>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C3" s="24" t="n">
-        <v>4204</v>
-      </c>
-      <c r="D3" s="52" t="n">
-        <v>1667954.55</v>
-      </c>
-      <c r="E3" s="24" t="n">
-        <v>12881</v>
-      </c>
-      <c r="F3" s="52" t="n">
-        <v>6562523.35</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A4" s="9" t="n">
-        <v>44406</v>
-      </c>
-      <c r="B4" s="9" t="n">
-        <v>44405</v>
-      </c>
-      <c r="C4" s="24" t="n">
-        <v>4085</v>
-      </c>
-      <c r="D4" s="52" t="n">
-        <v>1635324.77</v>
-      </c>
-      <c r="E4" s="24" t="n">
-        <v>13378</v>
-      </c>
-      <c r="F4" s="52" t="n">
-        <v>7325541.95</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A5" s="9" t="n">
-        <v>44407</v>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>44406</v>
-      </c>
-      <c r="C5" s="24" t="n">
-        <v>4127</v>
-      </c>
-      <c r="D5" s="52" t="n">
-        <v>1643627.96</v>
-      </c>
-      <c r="E5" s="24" t="n">
-        <v>14170</v>
-      </c>
-      <c r="F5" s="52" t="n">
-        <v>7712536.93</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A6" s="9" t="n">
-        <v>44408</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>44407</v>
-      </c>
-      <c r="C6" s="24" t="n">
-        <v>4191</v>
-      </c>
-      <c r="D6" s="52" t="n">
-        <v>1650514.58</v>
-      </c>
-      <c r="E6" s="24" t="n">
-        <v>13987</v>
-      </c>
-      <c r="F6" s="52" t="n">
-        <v>7467407.03</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A7" s="9" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B7" s="9" t="n">
-        <v>44408</v>
-      </c>
-      <c r="C7" s="24" t="n">
-        <v>4305</v>
-      </c>
-      <c r="D7" s="52" t="n">
-        <v>1659210.45</v>
-      </c>
-      <c r="E7" s="24" t="n">
-        <v>13965</v>
-      </c>
-      <c r="F7" s="52" t="n">
-        <v>7366320.69</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A8" s="53" t="inlineStr">
+    <row r="1" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A1" s="7" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B1" s="7" t="n">
+        <v>44451</v>
+      </c>
+      <c r="C1" s="20" t="n">
+        <v>4014</v>
+      </c>
+      <c r="D1" s="43" t="n">
+        <v>1639784.77</v>
+      </c>
+      <c r="E1" s="20" t="n">
+        <v>12692</v>
+      </c>
+      <c r="F1" s="43" t="n">
+        <v>7193685.42</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A2" s="7" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>44452</v>
+      </c>
+      <c r="C2" s="20" t="n">
+        <v>3953</v>
+      </c>
+      <c r="D2" s="43" t="n">
+        <v>1451346.64</v>
+      </c>
+      <c r="E2" s="20" t="n">
+        <v>11057</v>
+      </c>
+      <c r="F2" s="43" t="n">
+        <v>6352852.22</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A3" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>44453</v>
+      </c>
+      <c r="C3" s="20" t="n">
+        <v>4357</v>
+      </c>
+      <c r="D3" s="43" t="n">
+        <v>1711772.32</v>
+      </c>
+      <c r="E3" s="20" t="n">
+        <v>13045</v>
+      </c>
+      <c r="F3" s="43" t="n">
+        <v>7347888.3</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A4" s="7" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="C4" s="20" t="n">
+        <v>4193</v>
+      </c>
+      <c r="D4" s="43" t="n">
+        <v>1654110.7</v>
+      </c>
+      <c r="E4" s="20" t="n">
+        <v>13038</v>
+      </c>
+      <c r="F4" s="43" t="n">
+        <v>7363669.26</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A5" s="7" t="n">
+        <v>44456</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>44455</v>
+      </c>
+      <c r="C5" s="20" t="n">
+        <v>4484</v>
+      </c>
+      <c r="D5" s="43" t="n">
+        <v>1721756.61</v>
+      </c>
+      <c r="E5" s="20" t="n">
+        <v>13789</v>
+      </c>
+      <c r="F5" s="43" t="n">
+        <v>8135485.75</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A6" s="7" t="n">
+        <v>44457</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>44456</v>
+      </c>
+      <c r="C6" s="20" t="n">
+        <v>4378</v>
+      </c>
+      <c r="D6" s="43" t="n">
+        <v>1687394.08</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>14253</v>
+      </c>
+      <c r="F6" s="43" t="n">
+        <v>8347673.65</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A7" s="7" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>44457</v>
+      </c>
+      <c r="C7" s="20" t="n">
+        <v>4274</v>
+      </c>
+      <c r="D7" s="43" t="n">
+        <v>1647279.98</v>
+      </c>
+      <c r="E7" s="20" t="n">
+        <v>14735</v>
+      </c>
+      <c r="F7" s="43" t="n">
+        <v>8505518.029999999</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A8" s="37" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="B8" s="54" t="n"/>
-      <c r="C8" s="25">
+      <c r="B8" s="38" t="n"/>
+      <c r="C8" s="21">
         <f>SUM(C1:C7)</f>
         <v/>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="44">
         <f>SUM(D1:D7)</f>
         <v/>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <f>SUM(E1:E7)</f>
         <v/>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="44">
         <f>SUM(F1:F7)</f>
         <v/>
       </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1" s="26" thickTop="1"/>
+      <c r="H8">
+        <f>C8+E8</f>
+        <v/>
+      </c>
+      <c r="I8" s="45">
+        <f>D8+F8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="14.5" customHeight="1" s="22" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
@@ -2061,183 +1980,183 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="10.26953125" bestFit="1" customWidth="1" style="26" min="1" max="2"/>
-    <col width="15.08984375" bestFit="1" customWidth="1" style="26" min="3" max="6"/>
-    <col width="15.08984375" customWidth="1" style="26" min="7" max="7"/>
-    <col width="9.36328125" bestFit="1" customWidth="1" style="26" min="9" max="9"/>
-    <col width="13.90625" bestFit="1" customWidth="1" style="26" min="10" max="14"/>
+    <col width="10.26953125" bestFit="1" customWidth="1" style="22" min="1" max="2"/>
+    <col width="15.08984375" bestFit="1" customWidth="1" style="22" min="3" max="6"/>
+    <col width="15.08984375" customWidth="1" style="22" min="7" max="7"/>
+    <col width="9.36328125" bestFit="1" customWidth="1" style="22" min="9" max="9"/>
+    <col width="13.90625" bestFit="1" customWidth="1" style="22" min="10" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="n">
-        <v>44403</v>
-      </c>
-      <c r="B1" s="9" t="n">
-        <v>44400</v>
-      </c>
-      <c r="C1" s="7" t="n">
-        <v>1651803.33</v>
-      </c>
-      <c r="D1" s="7" t="n">
-        <v>1651803.33</v>
-      </c>
-      <c r="E1" s="7" t="n">
-        <v>1651803.33</v>
-      </c>
-      <c r="F1" s="7" t="n">
-        <v>1651803.33</v>
+      <c r="A1" s="7" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B1" s="7" t="n">
+        <v>44449</v>
+      </c>
+      <c r="C1" s="6" t="n">
+        <v>1677497.01</v>
+      </c>
+      <c r="D1" s="6" t="n">
+        <v>1677497.01</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>1677497.01</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>1677497.01</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="n">
-        <v>44404</v>
-      </c>
-      <c r="B2" s="9" t="n">
-        <v>44401</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>1779105.67</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>1779105.67</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>1779105.67</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>1779105.67</v>
+      <c r="A2" s="7" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>44450</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>1760258.76</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>1760258.76</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>1760258.76</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>1760258.76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n">
-        <v>44405</v>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>44402</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>1497000.53</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>1497000.53</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>1497000.53</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>1497000.53</v>
+      <c r="A3" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>44451</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>1633813.25</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>1633813.25</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1633813.25</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>1633813.25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="n">
-        <v>44406</v>
-      </c>
-      <c r="B4" s="9" t="n">
-        <v>44403</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>1635324.77</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>1635324.77</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>1635324.77</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>1635324.77</v>
+      <c r="A4" s="7" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>44452</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>1394236.12</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1394236.12</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>1394236.12</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1394236.12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="n">
-        <v>44407</v>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>44404</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>1667954.55</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>1667954.55</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1667954.55</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>1667954.55</v>
+      <c r="A5" s="7" t="n">
+        <v>44456</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>44453</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>1711772.32</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>1711772.32</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>1711772.32</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1711772.32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="n">
-        <v>44408</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>44405</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>1635324.77</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>1635324.77</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>1635324.77</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>1635324.77</v>
+      <c r="A6" s="7" t="n">
+        <v>44457</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1655229.15</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1655229.15</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1655229.15</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1655229.15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B7" s="9" t="n">
-        <v>44406</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>1644826.01</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1644826.01</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>1644826.01</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>1644826.01</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1" s="26" thickBot="1">
-      <c r="A8" s="41" t="inlineStr">
+      <c r="A7" s="7" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>44455</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>1720638.16</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1720638.16</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1720638.16</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1720638.16</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" s="22" thickBot="1">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="B8" s="44" t="n"/>
-      <c r="C8" s="22">
+      <c r="B8" s="30" t="n"/>
+      <c r="C8" s="18">
         <f>SUM(C1:C7)</f>
         <v/>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <f>SUM(D1:D7)</f>
         <v/>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <f>SUM(E1:E7)</f>
         <v/>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <f>SUM(F1:F7)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="14.5" customHeight="1" s="26" thickTop="1"/>
+    <row r="9" ht="14.5" customHeight="1" s="22" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
